--- a/medicine/Mort/Ancien_cimetière_de_Vesoul/Ancien_cimetière_de_Vesoul.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Vesoul/Ancien_cimetière_de_Vesoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
+          <t>Ancien_cimetière_de_Vesoul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière de Vesoul est le plus ancien des trois cimetières de la ville de Vesoul. Aménagé dès 1783, le cimetière a une superficie de 23 315 m2.
 Il totalise plus de 3 000 tombes dont certaines renferment des personnalités de réputation locale à nationale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
+          <t>Ancien_cimetière_de_Vesoul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière est situé sur l'un des flancs sud de La Motte. Le site est desservi par la ligne   4  du réseau Moova
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
+          <t>Ancien_cimetière_de_Vesoul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Histoire du cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a été aménagé à partir de 1783, dans les vignes au canton « du Danvion ». Il est doté d'une superficie de 2 hectares, 31 ares et 15 centiares, soit 23 115 m2[1],[2].
-Plusieurs propositions concernant l'agrandissement du cimetière en doublant son étendue en 1850, par une surface de 2 hectares 31 ares et 15 centiares en prenant une partie des dépendances du collège mais l'archevêque s’y oppose[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a été aménagé à partir de 1783, dans les vignes au canton « du Danvion ». Il est doté d'une superficie de 2 hectares, 31 ares et 15 centiares, soit 23 115 m2,.
+Plusieurs propositions concernant l'agrandissement du cimetière en doublant son étendue en 1850, par une surface de 2 hectares 31 ares et 15 centiares en prenant une partie des dépendances du collège mais l'archevêque s’y oppose.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
+          <t>Ancien_cimetière_de_Vesoul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organisation
-Le cimetière est entièrement clos de murs et divisé en : 12 parties inégales renfermant 3 070 fosses, un ossuaire, un caveau provisoire et un columbarium[1].
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est entièrement clos de murs et divisé en : 12 parties inégales renfermant 3 070 fosses, un ossuaire, un caveau provisoire et un columbarium.
 Un carré militaire réaménagé par le Souvenir Français, fleuri et régulièrement entretenu par la ville de Vesoul se trouve dans l'ancien cimetière. Il est composé de plus de 200 tombes de la Première Guerre mondiale, morts pour la France.
-Un espace aménagé pour la dispersion des cendres nommé « Espace cinéraire Charles-Edouard Thirria » est inauguré le 24 octobre 2020 dans la partie ouest de l'ancien cimetière[3].
+Un espace aménagé pour la dispersion des cendres nommé « Espace cinéraire Charles-Edouard Thirria » est inauguré le 24 octobre 2020 dans la partie ouest de l'ancien cimetière.
 			Le carré militaire du cimetière
 			L'espace cinéraire Charles Edouard Thirria
-Gestion du site
-L'ancien cimetière de Vesoul, tout comme le nouveau cimetière, est géré par les services de la Ville de Vesoul
 </t>
         </is>
       </c>
@@ -596,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
+          <t>Ancien_cimetière_de_Vesoul</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,31 +630,70 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fonctionnement et gestion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gestion du site</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière de Vesoul, tout comme le nouveau cimetière, est géré par les services de la Ville de Vesoul
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancien_cimetière_de_Vesoul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancien_cimeti%C3%A8re_de_Vesoul</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses personnalités reposent dans le cimetière[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses personnalités reposent dans le cimetière :
 Maires de Vesoul
-Paul Morel (1869-1933), homme politique, député de la Haute-Saône à plusieurs reprises et maire de Vesoul de 1908 à 1933[5]
+Paul Morel (1869-1933), homme politique, député de la Haute-Saône à plusieurs reprises et maire de Vesoul de 1908 à 1933
 Harold Fachard (1846-1934), homme politique et avocat. Député de la Haute-Saône entre 1900 et 1902, il a par la suite occupé le poste de maire de Vesoul de 1902 à 1904.
 Peintres et artistes
-Victor Jeanneney (1832-1885), peintre, fondateur du musée Georges-Garret en 1882[6]
-Claude-Basile Cariage (1798-1875), peintre et professeur de dessin[7]
-Jules Aimé Grosjean (1872-1906), sculpteur et statuaire[8]
-Madeleine Doillon-Toulouse (1889-1967), peintre[9]
+Victor Jeanneney (1832-1885), peintre, fondateur du musée Georges-Garret en 1882
+Claude-Basile Cariage (1798-1875), peintre et professeur de dessin
+Jules Aimé Grosjean (1872-1906), sculpteur et statuaire
+Madeleine Doillon-Toulouse (1889-1967), peintre
 Scientifiques
-Charles-Edouard Thirria (1796-1868), ingénieur des mines et géologue[10]
+Charles-Edouard Thirria (1796-1868), ingénieur des mines et géologue
 Charles Galmiche (1804-1874), archéologue et scientifique
 Autres personnalités
 Jean-Baptiste Flavigny (1732-1816), prêtre né à Vesoul, évêque constitutionnel de la Haute-Saône de 1791 à 1801.
-Lucien Laurent (1907-2005), footballeur professionnel et entraîneur de football. Il est connu pour être l'auteur du premier but de l'histoire de la Coupe du monde de football, le 13 juillet 1930, à l'occasion du match France - Mexique[11].
-Charles Dodelier (1816-1882), architecte[12]
-André Blanchard (1951-2014), écrivain et mémorialiste[13]
-François Ébaudy de Fresne (1743-1815), économiste[14]
-Pierre Briout (1915-1944), résistant français[15]
-Claude Ferdinand Bobillier, homme politique[16]
+Lucien Laurent (1907-2005), footballeur professionnel et entraîneur de football. Il est connu pour être l'auteur du premier but de l'histoire de la Coupe du monde de football, le 13 juillet 1930, à l'occasion du match France - Mexique.
+Charles Dodelier (1816-1882), architecte
+André Blanchard (1951-2014), écrivain et mémorialiste
+François Ébaudy de Fresne (1743-1815), économiste
+Pierre Briout (1915-1944), résistant français
+Claude Ferdinand Bobillier, homme politique
 Georges Genoux-Prachée (1794-1846), député de la Haute-Saône de 1831 à 1846. Avocat de formation, il devient par la suite conseiller de préfecture à Vesoul.
 			Victor Jeanneney
 			Charles-Edouard Thirria
@@ -644,35 +702,40 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vesoul</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ancien_cimetière_de_Vesoul</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ancien_cimeti%C3%A8re_de_Vesoul</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les cimetières de Vesoul</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les cimetières disparus
-Le premier cimetière identifié de Vesoul était localisé à côté de l'église Saint-Georges. Par la suite, il a été transféré entre la rue Saint-Georges et la rue des Cannes (actuelle rue des Halles), puis en 1770 au sud de la rue du Breuil.
-Les cimetières actuels</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les cimetières disparus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cimetière identifié de Vesoul était localisé à côté de l'église Saint-Georges. Par la suite, il a été transféré entre la rue Saint-Georges et la rue des Cannes (actuelle rue des Halles), puis en 1770 au sud de la rue du Breuil.
+</t>
         </is>
       </c>
     </row>
